--- a/Risk Management Plan.xlsx
+++ b/Risk Management Plan.xlsx
@@ -374,14 +374,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -422,13 +415,49 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -440,25 +469,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="7" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="8" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -767,7 +801,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -779,38 +813,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>53</v>
       </c>
       <c r="C3" s="6">
         <v>0.1</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>54</v>
       </c>
     </row>
@@ -821,7 +855,7 @@
       <c r="B4" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="7">
         <v>0.9</v>
       </c>
       <c r="D4" t="s">
@@ -835,7 +869,7 @@
       <c r="B5" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="8">
         <v>0.65</v>
       </c>
       <c r="D5" t="s">
@@ -849,7 +883,7 @@
       <c r="B6" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="7">
         <v>0.15</v>
       </c>
       <c r="D6" t="s">
@@ -863,7 +897,7 @@
       <c r="B7" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="6">
         <v>0.05</v>
       </c>
       <c r="D7" t="s">
@@ -877,7 +911,7 @@
       <c r="B8" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="6">
         <v>0.05</v>
       </c>
       <c r="D8" t="s">
@@ -888,7 +922,7 @@
       <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="8">
         <v>0.4</v>
       </c>
       <c r="D9" t="s">
@@ -902,7 +936,7 @@
       <c r="B10" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="6">
         <v>0.2</v>
       </c>
       <c r="D10" t="s">
@@ -916,7 +950,7 @@
       <c r="B11" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="6">
         <v>0.1</v>
       </c>
       <c r="D11" t="s">
@@ -930,8 +964,8 @@
       <c r="B12" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="3">
-        <v>0.02</v>
+      <c r="C12" s="6">
+        <v>0.12</v>
       </c>
       <c r="D12" t="s">
         <v>63</v>
@@ -944,7 +978,7 @@
       <c r="B13" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="7">
         <v>0.75</v>
       </c>
       <c r="D13" t="s">
@@ -958,7 +992,7 @@
       <c r="B14" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="8">
         <v>0.6</v>
       </c>
       <c r="D14" t="s">
@@ -972,7 +1006,7 @@
       <c r="B15" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="6">
         <v>0.15</v>
       </c>
       <c r="D15" t="s">
@@ -986,7 +1020,7 @@
       <c r="B16" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="8">
         <v>0.35</v>
       </c>
       <c r="D16" t="s">
@@ -1000,7 +1034,7 @@
       <c r="B17" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="6">
         <v>0.15</v>
       </c>
       <c r="D17" t="s">
@@ -1014,7 +1048,7 @@
       <c r="B18" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="6">
         <v>0.05</v>
       </c>
       <c r="D18" t="s">
@@ -1028,7 +1062,7 @@
       <c r="B19" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="7">
         <v>0.75</v>
       </c>
       <c r="D19" t="s">
@@ -1042,7 +1076,7 @@
       <c r="B20" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="6">
         <v>0.15</v>
       </c>
       <c r="D20" t="s">
@@ -1056,7 +1090,7 @@
       <c r="B21" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="6">
         <v>0.3</v>
       </c>
       <c r="D21" t="s">
@@ -1070,7 +1104,7 @@
       <c r="B22" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="6">
         <v>0.15</v>
       </c>
       <c r="D22" t="s">
